--- a/forms/app/covid_isolation_request.xlsx
+++ b/forms/app/covid_isolation_request.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="153">
   <si>
     <t>list_name</t>
   </si>
@@ -943,13 +943,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO1048"/>
+  <dimension ref="A1:AO1047"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P71" sqref="P71"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4418,9 +4418,11 @@
     </row>
     <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
@@ -4433,15 +4435,20 @@
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
       <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
+      <c r="O75" s="23" t="s">
+        <v>133</v>
+      </c>
       <c r="P75" s="24"/>
       <c r="Q75" s="24"/>
       <c r="R75" s="24"/>
       <c r="S75" s="24"/>
       <c r="T75" s="24"/>
-      <c r="U75" s="24"/>
-      <c r="V75" s="24"/>
-      <c r="W75" s="24"/>
+      <c r="U75" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="W75" s="23" t="s">
+        <v>133</v>
+      </c>
       <c r="X75" s="24"/>
       <c r="Y75" s="24"/>
       <c r="Z75" s="24"/>
@@ -4452,13 +4459,15 @@
     </row>
     <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
-      <c r="B76" s="23" t="s">
-        <v>132</v>
+      <c r="B76" s="24"/>
+      <c r="C76" s="30" t="s">
+        <v>83</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="D76" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
@@ -4469,20 +4478,15 @@
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
       <c r="N76" s="24"/>
-      <c r="O76" s="23" t="s">
-        <v>133</v>
-      </c>
+      <c r="O76" s="24"/>
       <c r="P76" s="24"/>
       <c r="Q76" s="24"/>
       <c r="R76" s="24"/>
       <c r="S76" s="24"/>
       <c r="T76" s="24"/>
-      <c r="U76" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="W76" s="23" t="s">
-        <v>133</v>
-      </c>
+      <c r="U76" s="24"/>
+      <c r="V76" s="24"/>
+      <c r="W76" s="24"/>
       <c r="X76" s="24"/>
       <c r="Y76" s="24"/>
       <c r="Z76" s="24"/>
@@ -4493,15 +4497,11 @@
     </row>
     <row r="77" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="B77" s="24"/>
-      <c r="C77" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>83</v>
-      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
@@ -4530,9 +4530,7 @@
       <c r="AD77" s="24"/>
     </row>
     <row r="78" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>72</v>
-      </c>
+      <c r="A78" s="24"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
@@ -35570,38 +35568,6 @@
       <c r="AB1047" s="24"/>
       <c r="AC1047" s="24"/>
       <c r="AD1047" s="24"/>
-    </row>
-    <row r="1048" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1048" s="24"/>
-      <c r="B1048" s="24"/>
-      <c r="C1048" s="24"/>
-      <c r="D1048" s="24"/>
-      <c r="E1048" s="24"/>
-      <c r="F1048" s="24"/>
-      <c r="G1048" s="24"/>
-      <c r="H1048" s="24"/>
-      <c r="I1048" s="24"/>
-      <c r="J1048" s="24"/>
-      <c r="K1048" s="24"/>
-      <c r="L1048" s="24"/>
-      <c r="M1048" s="24"/>
-      <c r="N1048" s="24"/>
-      <c r="O1048" s="24"/>
-      <c r="P1048" s="24"/>
-      <c r="Q1048" s="24"/>
-      <c r="R1048" s="24"/>
-      <c r="S1048" s="24"/>
-      <c r="T1048" s="24"/>
-      <c r="U1048" s="24"/>
-      <c r="V1048" s="24"/>
-      <c r="W1048" s="24"/>
-      <c r="X1048" s="24"/>
-      <c r="Y1048" s="24"/>
-      <c r="Z1048" s="24"/>
-      <c r="AA1048" s="24"/>
-      <c r="AB1048" s="24"/>
-      <c r="AC1048" s="24"/>
-      <c r="AD1048" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -41767,7 +41733,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-21 13-08</v>
+        <v>2020-11-21 13-17</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>44</v>

--- a/forms/app/covid_isolation_request.xlsx
+++ b/forms/app/covid_isolation_request.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="152">
   <si>
     <t>list_name</t>
   </si>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>${contact_profile}</t>
-  </si>
-  <si>
-    <t>end repeat</t>
   </si>
   <si>
     <t>${outbreak_case_id}!=''</t>
@@ -943,13 +940,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO1047"/>
+  <dimension ref="A1:AO1046"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="A75:XFD75"/>
+      <selection pane="bottomRight" activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2102,10 +2099,10 @@
         <v>75</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -3143,7 +3140,7 @@
         <v>115</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="36"/>
@@ -3151,7 +3148,7 @@
       <c r="G44" s="37"/>
       <c r="H44" s="9"/>
       <c r="I44" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3194,7 +3191,7 @@
         <v>116</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="36"/>
@@ -3202,7 +3199,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="9"/>
       <c r="I45" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3245,7 +3242,7 @@
         <v>117</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="36"/>
@@ -3253,7 +3250,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="9"/>
       <c r="I46" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3296,7 +3293,7 @@
         <v>118</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="36"/>
@@ -3304,7 +3301,7 @@
       <c r="G47" s="37"/>
       <c r="H47" s="9"/>
       <c r="I47" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3347,7 +3344,7 @@
         <v>119</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="36"/>
@@ -3355,7 +3352,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="9"/>
       <c r="I48" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3398,7 +3395,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="36"/>
@@ -3406,7 +3403,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="9"/>
       <c r="I49" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -3491,7 +3488,7 @@
         <v>36</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4010,7 +4007,7 @@
       <c r="M64" s="24"/>
       <c r="N64" s="24"/>
       <c r="O64" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P64" s="24"/>
       <c r="Q64" s="24"/>
@@ -4093,7 +4090,7 @@
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
       <c r="O66" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P66" s="24"/>
       <c r="Q66" s="24"/>
@@ -4177,7 +4174,7 @@
       <c r="M68" s="24"/>
       <c r="N68" s="24"/>
       <c r="O68" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P68" s="24"/>
       <c r="Q68" s="24"/>
@@ -4406,7 +4403,7 @@
       </c>
       <c r="V74" s="24"/>
       <c r="W74" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X74" s="24"/>
       <c r="Y74" s="24"/>
@@ -4459,15 +4456,11 @@
     </row>
     <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="B76" s="24"/>
-      <c r="C76" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>83</v>
-      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
@@ -4496,9 +4489,7 @@
       <c r="AD76" s="24"/>
     </row>
     <row r="77" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>72</v>
-      </c>
+      <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
@@ -35536,38 +35527,6 @@
       <c r="AB1046" s="24"/>
       <c r="AC1046" s="24"/>
       <c r="AD1046" s="24"/>
-    </row>
-    <row r="1047" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1047" s="24"/>
-      <c r="B1047" s="24"/>
-      <c r="C1047" s="24"/>
-      <c r="D1047" s="24"/>
-      <c r="E1047" s="24"/>
-      <c r="F1047" s="24"/>
-      <c r="G1047" s="24"/>
-      <c r="H1047" s="24"/>
-      <c r="I1047" s="24"/>
-      <c r="J1047" s="24"/>
-      <c r="K1047" s="24"/>
-      <c r="L1047" s="24"/>
-      <c r="M1047" s="24"/>
-      <c r="N1047" s="24"/>
-      <c r="O1047" s="24"/>
-      <c r="P1047" s="24"/>
-      <c r="Q1047" s="24"/>
-      <c r="R1047" s="24"/>
-      <c r="S1047" s="24"/>
-      <c r="T1047" s="24"/>
-      <c r="U1047" s="24"/>
-      <c r="V1047" s="24"/>
-      <c r="W1047" s="24"/>
-      <c r="X1047" s="24"/>
-      <c r="Y1047" s="24"/>
-      <c r="Z1047" s="24"/>
-      <c r="AA1047" s="24"/>
-      <c r="AB1047" s="24"/>
-      <c r="AC1047" s="24"/>
-      <c r="AD1047" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -41733,7 +41692,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-21 13-17</v>
+        <v>2020-11-21 13-18</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>44</v>

--- a/forms/app/covid_isolation_request.xlsx
+++ b/forms/app/covid_isolation_request.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="152">
   <si>
     <t>list_name</t>
   </si>
@@ -940,7 +940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO1046"/>
+  <dimension ref="A1:AO1045"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
@@ -4455,9 +4455,7 @@
       <c r="AD75" s="24"/>
     </row>
     <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
-        <v>72</v>
-      </c>
+      <c r="A76" s="24"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
@@ -35495,38 +35493,6 @@
       <c r="AB1045" s="24"/>
       <c r="AC1045" s="24"/>
       <c r="AD1045" s="24"/>
-    </row>
-    <row r="1046" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1046" s="24"/>
-      <c r="B1046" s="24"/>
-      <c r="C1046" s="24"/>
-      <c r="D1046" s="24"/>
-      <c r="E1046" s="24"/>
-      <c r="F1046" s="24"/>
-      <c r="G1046" s="24"/>
-      <c r="H1046" s="24"/>
-      <c r="I1046" s="24"/>
-      <c r="J1046" s="24"/>
-      <c r="K1046" s="24"/>
-      <c r="L1046" s="24"/>
-      <c r="M1046" s="24"/>
-      <c r="N1046" s="24"/>
-      <c r="O1046" s="24"/>
-      <c r="P1046" s="24"/>
-      <c r="Q1046" s="24"/>
-      <c r="R1046" s="24"/>
-      <c r="S1046" s="24"/>
-      <c r="T1046" s="24"/>
-      <c r="U1046" s="24"/>
-      <c r="V1046" s="24"/>
-      <c r="W1046" s="24"/>
-      <c r="X1046" s="24"/>
-      <c r="Y1046" s="24"/>
-      <c r="Z1046" s="24"/>
-      <c r="AA1046" s="24"/>
-      <c r="AB1046" s="24"/>
-      <c r="AC1046" s="24"/>
-      <c r="AD1046" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -41692,7 +41658,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-21 13-18</v>
+        <v>2020-11-21 13-20</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>44</v>

--- a/forms/app/covid_isolation_request.xlsx
+++ b/forms/app/covid_isolation_request.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="150">
   <si>
     <t>list_name</t>
   </si>
@@ -425,12 +425,6 @@
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>contact_doc</t>
-  </si>
-  <si>
-    <t>${contact_profile}</t>
   </si>
   <si>
     <t>${outbreak_case_id}!=''</t>
@@ -940,13 +934,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO1045"/>
+  <dimension ref="A1:AO1044"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A76" sqref="A76:XFD76"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2099,10 +2093,10 @@
         <v>75</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -3140,7 +3134,7 @@
         <v>115</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="36"/>
@@ -3148,7 +3142,7 @@
       <c r="G44" s="37"/>
       <c r="H44" s="9"/>
       <c r="I44" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3191,7 +3185,7 @@
         <v>116</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="36"/>
@@ -3199,7 +3193,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="9"/>
       <c r="I45" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3242,7 +3236,7 @@
         <v>117</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="36"/>
@@ -3250,7 +3244,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="9"/>
       <c r="I46" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3293,7 +3287,7 @@
         <v>118</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="36"/>
@@ -3301,7 +3295,7 @@
       <c r="G47" s="37"/>
       <c r="H47" s="9"/>
       <c r="I47" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3344,7 +3338,7 @@
         <v>119</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="36"/>
@@ -3352,7 +3346,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="9"/>
       <c r="I48" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3395,7 +3389,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="36"/>
@@ -3403,7 +3397,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="9"/>
       <c r="I49" s="36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -3488,7 +3482,7 @@
         <v>36</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4007,7 +4001,7 @@
       <c r="M64" s="24"/>
       <c r="N64" s="24"/>
       <c r="O64" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P64" s="24"/>
       <c r="Q64" s="24"/>
@@ -4090,7 +4084,7 @@
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
       <c r="O66" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P66" s="24"/>
       <c r="Q66" s="24"/>
@@ -4174,7 +4168,7 @@
       <c r="M68" s="24"/>
       <c r="N68" s="24"/>
       <c r="O68" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P68" s="24"/>
       <c r="Q68" s="24"/>
@@ -4403,7 +4397,7 @@
       </c>
       <c r="V74" s="24"/>
       <c r="W74" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X74" s="24"/>
       <c r="Y74" s="24"/>
@@ -4414,12 +4408,8 @@
       <c r="AD74" s="24"/>
     </row>
     <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>132</v>
-      </c>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
@@ -4432,20 +4422,15 @@
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
       <c r="N75" s="24"/>
-      <c r="O75" s="23" t="s">
-        <v>133</v>
-      </c>
+      <c r="O75" s="24"/>
       <c r="P75" s="24"/>
       <c r="Q75" s="24"/>
       <c r="R75" s="24"/>
       <c r="S75" s="24"/>
       <c r="T75" s="24"/>
-      <c r="U75" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="W75" s="23" t="s">
-        <v>133</v>
-      </c>
+      <c r="U75" s="24"/>
+      <c r="V75" s="24"/>
+      <c r="W75" s="24"/>
       <c r="X75" s="24"/>
       <c r="Y75" s="24"/>
       <c r="Z75" s="24"/>
@@ -35461,38 +35446,6 @@
       <c r="AB1044" s="24"/>
       <c r="AC1044" s="24"/>
       <c r="AD1044" s="24"/>
-    </row>
-    <row r="1045" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1045" s="24"/>
-      <c r="B1045" s="24"/>
-      <c r="C1045" s="24"/>
-      <c r="D1045" s="24"/>
-      <c r="E1045" s="24"/>
-      <c r="F1045" s="24"/>
-      <c r="G1045" s="24"/>
-      <c r="H1045" s="24"/>
-      <c r="I1045" s="24"/>
-      <c r="J1045" s="24"/>
-      <c r="K1045" s="24"/>
-      <c r="L1045" s="24"/>
-      <c r="M1045" s="24"/>
-      <c r="N1045" s="24"/>
-      <c r="O1045" s="24"/>
-      <c r="P1045" s="24"/>
-      <c r="Q1045" s="24"/>
-      <c r="R1045" s="24"/>
-      <c r="S1045" s="24"/>
-      <c r="T1045" s="24"/>
-      <c r="U1045" s="24"/>
-      <c r="V1045" s="24"/>
-      <c r="W1045" s="24"/>
-      <c r="X1045" s="24"/>
-      <c r="Y1045" s="24"/>
-      <c r="Z1045" s="24"/>
-      <c r="AA1045" s="24"/>
-      <c r="AB1045" s="24"/>
-      <c r="AC1045" s="24"/>
-      <c r="AD1045" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -41658,7 +41611,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-21 13-20</v>
+        <v>2020-11-21 13-25</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>44</v>
